--- a/us_born_outside_us_nodes_w_state_compare.xlsx
+++ b/us_born_outside_us_nodes_w_state_compare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\Dropbox\General Folder\Python\Git_projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF84527-1D2F-40B8-A2F4-4BD12953AEBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9701EE-FD41-4A17-B1AF-BBE362BABC9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3480" yWindow="15630" windowWidth="29040" windowHeight="15840" xr2:uid="{99993D58-32E9-4D74-A5D6-A990C8929F1E}"/>
+    <workbookView xWindow="630" yWindow="510" windowWidth="21600" windowHeight="11385" xr2:uid="{99993D58-32E9-4D74-A5D6-A990C8929F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -285,6 +285,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5CD9DF-E38F-4EBF-A4BA-15E19D02CC99}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1073,7 +1074,7 @@
         <v>0.68499999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>0.68499999999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>0.64999999999999991</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1139,11 +1140,12 @@
       <c r="C37" s="2">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1153,25 +1155,27 @@
       <c r="C38" s="2">
         <v>0.245</v>
       </c>
-      <c r="D38">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="D38" s="6">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C39" s="2">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="D39">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.25</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1181,11 +1185,12 @@
       <c r="C40" s="2">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="D40">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="D40" s="6">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1195,11 +1200,12 @@
       <c r="C41" s="2">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="D41">
-        <v>0.76999999999999991</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="D41" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1209,11 +1215,12 @@
       <c r="C42" s="2">
         <v>0.245</v>
       </c>
-      <c r="D42">
-        <v>0.78999999999999992</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="D42" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1223,11 +1230,12 @@
       <c r="C43" s="2">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="D43">
-        <v>0.78999999999999992</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="D43" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1237,11 +1245,12 @@
       <c r="C44" s="2">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="D44">
-        <v>0.80999999999999994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="D44" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1251,11 +1260,12 @@
       <c r="C45" s="2">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="D45">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="D45" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1265,11 +1275,12 @@
       <c r="C46" s="2">
         <v>0.49</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="6">
         <v>0.80999999999999994</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1279,11 +1290,12 @@
       <c r="C47" s="2">
         <v>0.245</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="6">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>49</v>
       </c>
